--- a/Data_frame/balancos_definitivos/PORT3.xlsx
+++ b/Data_frame/balancos_definitivos/PORT3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,21 @@
           <t>30/09/2023</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -542,6 +557,15 @@
       <c r="M2" t="n">
         <v>5764979.2</v>
       </c>
+      <c r="N2" t="n">
+        <v>5766859.776</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5944329.216</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6259262.976</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -585,6 +609,15 @@
       <c r="M3" t="n">
         <v>813417.9840000001</v>
       </c>
+      <c r="N3" t="n">
+        <v>945920</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1025611.008</v>
+      </c>
+      <c r="P3" t="n">
+        <v>983409.024</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -628,6 +661,15 @@
       <c r="M4" t="n">
         <v>217046</v>
       </c>
+      <c r="N4" t="n">
+        <v>233350</v>
+      </c>
+      <c r="O4" t="n">
+        <v>346931.008</v>
+      </c>
+      <c r="P4" t="n">
+        <v>281335.008</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -671,6 +713,15 @@
       <c r="M5" t="n">
         <v>0</v>
       </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -714,6 +765,15 @@
       <c r="M6" t="n">
         <v>301064.992</v>
       </c>
+      <c r="N6" t="n">
+        <v>318047.008</v>
+      </c>
+      <c r="O6" t="n">
+        <v>326055.008</v>
+      </c>
+      <c r="P6" t="n">
+        <v>359548.992</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -757,6 +817,15 @@
       <c r="M7" t="n">
         <v>81851</v>
       </c>
+      <c r="N7" t="n">
+        <v>87974</v>
+      </c>
+      <c r="O7" t="n">
+        <v>87201</v>
+      </c>
+      <c r="P7" t="n">
+        <v>98012</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -800,6 +869,15 @@
       <c r="M8" t="n">
         <v>0</v>
       </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -843,6 +921,15 @@
       <c r="M9" t="n">
         <v>132645</v>
       </c>
+      <c r="N9" t="n">
+        <v>230968</v>
+      </c>
+      <c r="O9" t="n">
+        <v>185144</v>
+      </c>
+      <c r="P9" t="n">
+        <v>157303.008</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -886,6 +973,15 @@
       <c r="M10" t="n">
         <v>0</v>
       </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -929,6 +1025,15 @@
       <c r="M11" t="n">
         <v>80811</v>
       </c>
+      <c r="N11" t="n">
+        <v>75581</v>
+      </c>
+      <c r="O11" t="n">
+        <v>80280</v>
+      </c>
+      <c r="P11" t="n">
+        <v>87210</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -972,6 +1077,15 @@
       <c r="M12" t="n">
         <v>308910.016</v>
       </c>
+      <c r="N12" t="n">
+        <v>288775.008</v>
+      </c>
+      <c r="O12" t="n">
+        <v>319337.984</v>
+      </c>
+      <c r="P12" t="n">
+        <v>345900.992</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1015,6 +1129,15 @@
       <c r="M13" t="n">
         <v>0</v>
       </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1058,6 +1181,15 @@
       <c r="M14" t="n">
         <v>0</v>
       </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1101,6 +1233,15 @@
       <c r="M15" t="n">
         <v>0</v>
       </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1144,6 +1285,15 @@
       <c r="M16" t="n">
         <v>7743</v>
       </c>
+      <c r="N16" t="n">
+        <v>7488</v>
+      </c>
+      <c r="O16" t="n">
+        <v>7683</v>
+      </c>
+      <c r="P16" t="n">
+        <v>7723</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1187,6 +1337,15 @@
       <c r="M17" t="n">
         <v>0</v>
       </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1230,6 +1389,15 @@
       <c r="M18" t="n">
         <v>0</v>
       </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1273,6 +1441,15 @@
       <c r="M19" t="n">
         <v>114364</v>
       </c>
+      <c r="N19" t="n">
+        <v>110512</v>
+      </c>
+      <c r="O19" t="n">
+        <v>115957</v>
+      </c>
+      <c r="P19" t="n">
+        <v>128270</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1316,6 +1493,15 @@
       <c r="M20" t="n">
         <v>0</v>
       </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1359,6 +1545,15 @@
       <c r="M21" t="n">
         <v>57463</v>
       </c>
+      <c r="N21" t="n">
+        <v>55646</v>
+      </c>
+      <c r="O21" t="n">
+        <v>58290</v>
+      </c>
+      <c r="P21" t="n">
+        <v>64839</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1402,6 +1597,15 @@
       <c r="M22" t="n">
         <v>478844.992</v>
       </c>
+      <c r="N22" t="n">
+        <v>465172.992</v>
+      </c>
+      <c r="O22" t="n">
+        <v>483040.992</v>
+      </c>
+      <c r="P22" t="n">
+        <v>531748.992</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1445,6 +1649,15 @@
       <c r="M23" t="n">
         <v>4028261.12</v>
       </c>
+      <c r="N23" t="n">
+        <v>3934074.112</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3983280.896</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4255911.936</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1488,6 +1701,15 @@
       <c r="M24" t="n">
         <v>135544.992</v>
       </c>
+      <c r="N24" t="n">
+        <v>132918</v>
+      </c>
+      <c r="O24" t="n">
+        <v>133058</v>
+      </c>
+      <c r="P24" t="n">
+        <v>142292</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1531,6 +1753,15 @@
       <c r="M25" t="n">
         <v>0</v>
       </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1574,6 +1805,15 @@
       <c r="M26" t="n">
         <v>5764979.2</v>
       </c>
+      <c r="N26" t="n">
+        <v>5766859.776</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5944329.216</v>
+      </c>
+      <c r="P26" t="n">
+        <v>6259262.976</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1617,6 +1857,15 @@
       <c r="M27" t="n">
         <v>957091.968</v>
       </c>
+      <c r="N27" t="n">
+        <v>876772.992</v>
+      </c>
+      <c r="O27" t="n">
+        <v>897742.976</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1023318.976</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1660,6 +1909,15 @@
       <c r="M28" t="n">
         <v>123616</v>
       </c>
+      <c r="N28" t="n">
+        <v>122382</v>
+      </c>
+      <c r="O28" t="n">
+        <v>143467.008</v>
+      </c>
+      <c r="P28" t="n">
+        <v>110961</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1703,6 +1961,15 @@
       <c r="M29" t="n">
         <v>134536.992</v>
       </c>
+      <c r="N29" t="n">
+        <v>157164</v>
+      </c>
+      <c r="O29" t="n">
+        <v>147439.008</v>
+      </c>
+      <c r="P29" t="n">
+        <v>187646</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1746,6 +2013,15 @@
       <c r="M30" t="n">
         <v>46288</v>
       </c>
+      <c r="N30" t="n">
+        <v>52443</v>
+      </c>
+      <c r="O30" t="n">
+        <v>49623</v>
+      </c>
+      <c r="P30" t="n">
+        <v>50382</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1789,6 +2065,15 @@
       <c r="M31" t="n">
         <v>454356.992</v>
       </c>
+      <c r="N31" t="n">
+        <v>482380.992</v>
+      </c>
+      <c r="O31" t="n">
+        <v>498974.016</v>
+      </c>
+      <c r="P31" t="n">
+        <v>585577.9840000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1832,6 +2117,15 @@
       <c r="M32" t="n">
         <v>0</v>
       </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1875,6 +2169,15 @@
       <c r="M33" t="n">
         <v>141330</v>
       </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1918,6 +2221,15 @@
       <c r="M34" t="n">
         <v>56964</v>
       </c>
+      <c r="N34" t="n">
+        <v>62403</v>
+      </c>
+      <c r="O34" t="n">
+        <v>58240</v>
+      </c>
+      <c r="P34" t="n">
+        <v>88752</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1961,6 +2273,15 @@
       <c r="M35" t="n">
         <v>0</v>
       </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2004,6 +2325,15 @@
       <c r="M36" t="n">
         <v>0</v>
       </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2047,6 +2377,15 @@
       <c r="M37" t="n">
         <v>2507241.984</v>
       </c>
+      <c r="N37" t="n">
+        <v>2536230.912</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2590360.064</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2689921.024</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2090,6 +2429,15 @@
       <c r="M38" t="n">
         <v>2220098.048</v>
       </c>
+      <c r="N38" t="n">
+        <v>2173008.896</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2205829.12</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2209701.12</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2133,6 +2481,15 @@
       <c r="M39" t="n">
         <v>23</v>
       </c>
+      <c r="N39" t="n">
+        <v>295</v>
+      </c>
+      <c r="O39" t="n">
+        <v>37</v>
+      </c>
+      <c r="P39" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2176,6 +2533,15 @@
       <c r="M40" t="n">
         <v>9727</v>
       </c>
+      <c r="N40" t="n">
+        <v>9908</v>
+      </c>
+      <c r="O40" t="n">
+        <v>10135</v>
+      </c>
+      <c r="P40" t="n">
+        <v>10362</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2219,6 +2585,15 @@
       <c r="M41" t="n">
         <v>239443.008</v>
       </c>
+      <c r="N41" t="n">
+        <v>317568.992</v>
+      </c>
+      <c r="O41" t="n">
+        <v>339308</v>
+      </c>
+      <c r="P41" t="n">
+        <v>429503.008</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2262,6 +2637,15 @@
       <c r="M42" t="n">
         <v>0</v>
       </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2305,6 +2689,15 @@
       <c r="M43" t="n">
         <v>37951</v>
       </c>
+      <c r="N43" t="n">
+        <v>35450</v>
+      </c>
+      <c r="O43" t="n">
+        <v>35051</v>
+      </c>
+      <c r="P43" t="n">
+        <v>40305</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2348,6 +2741,15 @@
       <c r="M44" t="n">
         <v>0</v>
       </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2391,6 +2793,15 @@
       <c r="M45" t="n">
         <v>0</v>
       </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2434,6 +2845,15 @@
       <c r="M46" t="n">
         <v>1753</v>
       </c>
+      <c r="N46" t="n">
+        <v>444</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1357</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2445</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2477,6 +2897,15 @@
       <c r="M47" t="n">
         <v>2298892.12</v>
       </c>
+      <c r="N47" t="n">
+        <v>2353412</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2454869.048</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2543577.912</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2520,6 +2949,15 @@
       <c r="M48" t="n">
         <v>351670.016</v>
       </c>
+      <c r="N48" t="n">
+        <v>351670.016</v>
+      </c>
+      <c r="O48" t="n">
+        <v>351670.016</v>
+      </c>
+      <c r="P48" t="n">
+        <v>351670.016</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2563,6 +3001,15 @@
       <c r="M49" t="n">
         <v>39100</v>
       </c>
+      <c r="N49" t="n">
+        <v>39499</v>
+      </c>
+      <c r="O49" t="n">
+        <v>39794</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4895</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2606,6 +3053,15 @@
       <c r="M50" t="n">
         <v>0</v>
       </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2649,6 +3105,15 @@
       <c r="M51" t="n">
         <v>1102697.984</v>
       </c>
+      <c r="N51" t="n">
+        <v>1360557.952</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1301362.048</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1260851.968</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2692,6 +3157,15 @@
       <c r="M52" t="n">
         <v>145388</v>
       </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>104345</v>
+      </c>
+      <c r="P52" t="n">
+        <v>72116</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2735,6 +3209,15 @@
       <c r="M53" t="n">
         <v>0</v>
       </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2778,6 +3261,15 @@
       <c r="M54" t="n">
         <v>0</v>
       </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2821,6 +3313,15 @@
       <c r="M55" t="n">
         <v>660035.968</v>
       </c>
+      <c r="N55" t="n">
+        <v>601684.992</v>
+      </c>
+      <c r="O55" t="n">
+        <v>657697.9840000001</v>
+      </c>
+      <c r="P55" t="n">
+        <v>854044.992</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2862,6 +3363,15 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2883,6 +3393,9 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2902,6 +3415,9 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2943,6 +3459,15 @@
       <c r="M59" t="n">
         <v>618585.024</v>
       </c>
+      <c r="N59" t="n">
+        <v>644823.1040000001</v>
+      </c>
+      <c r="O59" t="n">
+        <v>640934.0159999999</v>
+      </c>
+      <c r="P59" t="n">
+        <v>693891.008</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2984,6 +3509,15 @@
       <c r="M60" t="n">
         <v>-323849.984</v>
       </c>
+      <c r="N60" t="n">
+        <v>-347979.968</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-343764</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-375991.008</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3025,6 +3559,15 @@
       <c r="M61" t="n">
         <v>294735.008</v>
       </c>
+      <c r="N61" t="n">
+        <v>296842.976</v>
+      </c>
+      <c r="O61" t="n">
+        <v>297169.984</v>
+      </c>
+      <c r="P61" t="n">
+        <v>317900</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3066,6 +3609,15 @@
       <c r="M62" t="n">
         <v>-883</v>
       </c>
+      <c r="N62" t="n">
+        <v>-10269</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-3441</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-4204</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3107,6 +3659,15 @@
       <c r="M63" t="n">
         <v>-109569</v>
       </c>
+      <c r="N63" t="n">
+        <v>-121690</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-114004</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-123682</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3146,6 +3707,15 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3189,6 +3759,15 @@
       <c r="M65" t="n">
         <v>4296</v>
       </c>
+      <c r="N65" t="n">
+        <v>5660</v>
+      </c>
+      <c r="O65" t="n">
+        <v>11194</v>
+      </c>
+      <c r="P65" t="n">
+        <v>6407</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3230,6 +3809,15 @@
       <c r="M66" t="n">
         <v>-8572</v>
       </c>
+      <c r="N66" t="n">
+        <v>682</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-5012</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-7634</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3271,6 +3859,15 @@
       <c r="M67" t="n">
         <v>563</v>
       </c>
+      <c r="N67" t="n">
+        <v>1165</v>
+      </c>
+      <c r="O67" t="n">
+        <v>3598</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-3315</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3312,6 +3909,15 @@
       <c r="M68" t="n">
         <v>-33883</v>
       </c>
+      <c r="N68" t="n">
+        <v>-26102</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-28809</v>
+      </c>
+      <c r="P68" t="n">
+        <v>-56577</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3353,6 +3959,15 @@
       <c r="M69" t="n">
         <v>9715</v>
       </c>
+      <c r="N69" t="n">
+        <v>14703</v>
+      </c>
+      <c r="O69" t="n">
+        <v>16721</v>
+      </c>
+      <c r="P69" t="n">
+        <v>8783</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3393,6 +4008,15 @@
       </c>
       <c r="M70" t="n">
         <v>-43598</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-40805</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-45530</v>
+      </c>
+      <c r="P70" t="n">
+        <v>-65360</v>
       </c>
     </row>
     <row r="71">
@@ -3413,6 +4037,9 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3432,6 +4059,9 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3451,6 +4081,9 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3492,6 +4125,15 @@
       <c r="M74" t="n">
         <v>146687.008</v>
       </c>
+      <c r="N74" t="n">
+        <v>146288.992</v>
+      </c>
+      <c r="O74" t="n">
+        <v>160696</v>
+      </c>
+      <c r="P74" t="n">
+        <v>128895</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3533,6 +4175,15 @@
       <c r="M75" t="n">
         <v>-46967</v>
       </c>
+      <c r="N75" t="n">
+        <v>53811</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-42373</v>
+      </c>
+      <c r="P75" t="n">
+        <v>-24049</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3573,6 +4224,15 @@
       </c>
       <c r="M76" t="n">
         <v>-4880</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-86626</v>
+      </c>
+      <c r="O76" t="n">
+        <v>-13065</v>
+      </c>
+      <c r="P76" t="n">
+        <v>-59986</v>
       </c>
     </row>
     <row r="77">
@@ -3593,6 +4253,9 @@
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3612,6 +4275,9 @@
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3653,6 +4319,15 @@
       <c r="M79" t="n">
         <v>-783</v>
       </c>
+      <c r="N79" t="n">
+        <v>-1002</v>
+      </c>
+      <c r="O79" t="n">
+        <v>-913</v>
+      </c>
+      <c r="P79" t="n">
+        <v>-1088</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3693,6 +4368,15 @@
       </c>
       <c r="M80" t="n">
         <v>94057</v>
+      </c>
+      <c r="N80" t="n">
+        <v>112472.016</v>
+      </c>
+      <c r="O80" t="n">
+        <v>104345</v>
+      </c>
+      <c r="P80" t="n">
+        <v>43772</v>
       </c>
     </row>
   </sheetData>
